--- a/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Sochan.xlsx
+++ b/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Sochan.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,256 +463,969 @@
           <t>Velocity_Bin</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Trening</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:25:15.53</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>45687.50014988426</v>
       </c>
       <c r="B2" t="n">
+        <v>4350</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.720376185008457</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45687.52267881944</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6296.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.826542718069894</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45687.52400173611</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6410.8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.737319673810686</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45687.52221585648</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6256.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.449588435036796</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45687.52267650463</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6296.3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.614674772535051</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45687.5239994213</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6410.6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.443979297365462</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45684.59250381945</v>
+      </c>
+      <c r="B8" t="n">
+        <v>592.3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.128043089594159</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45684.59320289352</v>
+      </c>
+      <c r="B9" t="n">
+        <v>652.7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.27735161781311</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45684.59377233796</v>
+      </c>
+      <c r="B10" t="n">
+        <v>701.9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.798816118921554</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45684.59250150463</v>
+      </c>
+      <c r="B11" t="n">
+        <v>592.1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.062567251069203</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45684.5931994213</v>
+      </c>
+      <c r="B12" t="n">
+        <v>652.4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.064195905412946</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45684.59377118055</v>
+      </c>
+      <c r="B13" t="n">
+        <v>701.8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.756729228155956</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45684.59875844907</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1132.7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.623019116265433</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45684.60087418981</v>
+      </c>
+      <c r="B15" t="n">
         <v>1315.5</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C15" t="n">
         <v>11.93</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D15" t="n">
         <v>3.698765754699708</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:26:09.03</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45684.60149340278</v>
+      </c>
+      <c r="B16" t="n">
         <v>1369</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C16" t="n">
         <v>14.81</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D16" t="n">
         <v>3.94720697402954</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:40:42.83</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2242.8</v>
-      </c>
-      <c r="C4" t="n">
-        <v>14.64</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.278961965015958</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:25:15.33</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45684.59767280093</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1038.9</v>
+      </c>
+      <c r="C17" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.859877824783324</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45684.59814386574</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1079.6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3.194271530423845</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45684.600871875</v>
+      </c>
+      <c r="B19" t="n">
         <v>1315.3</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C19" t="n">
         <v>8.789999999999999</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D19" t="n">
         <v>3.504503079823086</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:37:15.13</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2035.1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.421131610870361</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:40:42.53</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2242.5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.622153350285122</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:33:22.35</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45685.64817534723</v>
+      </c>
+      <c r="B20" t="n">
         <v>1117.3</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C20" t="n">
         <v>14.3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D20" t="n">
         <v>3.912192991801672</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:35:19.55</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45685.64953182871</v>
+      </c>
+      <c r="B21" t="n">
         <v>1234.5</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C21" t="n">
         <v>14.08</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D21" t="n">
         <v>4.290932144437516</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:37:26.95</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45685.65100636574</v>
+      </c>
+      <c r="B22" t="n">
         <v>1361.9</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C22" t="n">
         <v>14.35</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D22" t="n">
         <v>4.229175295148576</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:35:19.25</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45685.648171875</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1117</v>
+      </c>
+      <c r="C23" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.358905383518764</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45685.64952835648</v>
+      </c>
+      <c r="B24" t="n">
         <v>1234.2</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C24" t="n">
         <v>8.85</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D24" t="n">
         <v>3.501034532274519</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:37:26.65</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45685.65100289352</v>
+      </c>
+      <c r="B25" t="n">
         <v>1361.6</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C25" t="n">
         <v>9.210000000000001</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D25" t="n">
         <v>3.569845982960293</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>28.01.2025 16:06:24.95</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45685.67112442129</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3100.1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3.78263885634286</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45685.6753130787</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3462</v>
+      </c>
+      <c r="C27" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.600886072431294</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45685.67829108796</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3719.3</v>
+      </c>
+      <c r="C28" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.487117052078247</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45685.66794502315</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2825.4</v>
+      </c>
+      <c r="C29" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.946751492364068</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45685.67112210648</v>
+      </c>
+      <c r="B30" t="n">
         <v>3099.9</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C30" t="n">
         <v>8.83</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D30" t="n">
         <v>3.442386286599296</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5-10</t>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45685.683890625</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4203.1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.841054993016379</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45686.47885219908</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1420.7</v>
+      </c>
+      <c r="C32" t="n">
+        <v>10</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.09304571953336058</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45686.47488923611</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1078.3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.315957989011492</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45686.47881747685</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1417.7</v>
+      </c>
+      <c r="C34" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.84555983543396</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45686.47893321759</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1427.7</v>
+      </c>
+      <c r="C35" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.9743774703570777</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45686.49380590278</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2712.7</v>
+      </c>
+      <c r="C36" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2.925533022199357</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45686.49439155093</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2763.3</v>
+      </c>
+      <c r="C37" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3.346225363867624</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45686.49767164352</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3046.7</v>
+      </c>
+      <c r="C38" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3.209783826555523</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45686.49323530093</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2663.4</v>
+      </c>
+      <c r="C39" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.745064292635238</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45686.49525266204</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2837.7</v>
+      </c>
+      <c r="C40" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.807887826647077</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45686.49767048611</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3046.6</v>
+      </c>
+      <c r="C41" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3.104573658534457</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
         </is>
       </c>
     </row>
